--- a/Automation/Transaction_request/XLS/card_data_sanity.xlsx
+++ b/Automation/Transaction_request/XLS/card_data_sanity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ganesh\Meijer\Automation_tool\Miejer_Petro\Transaction_request\XLS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="292" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="292" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2280,7 +2275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mmm\-d;@"/>
     <numFmt numFmtId="165" formatCode="\£#,##0;[Red]\£#,##0"/>
@@ -3055,7 +3050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3090,7 +3085,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3267,14 +3262,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4051,7 +4046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5049,11 +5044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -6789,7 +6784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" workbookViewId="0">
@@ -6860,7 +6855,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="165.75">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="22" t="s">
         <v>292</v>
       </c>
@@ -6878,7 +6873,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="21"/>
     </row>
-    <row r="3" spans="1:15" ht="153">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="10" t="s">
         <v>152</v>
       </c>
@@ -6913,7 +6908,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="150">
+    <row r="4" spans="1:15" ht="13.5">
       <c r="A4" s="10" t="s">
         <v>153</v>
       </c>
@@ -6930,7 +6925,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="89.25">
+    <row r="5" spans="1:15" ht="13.5">
       <c r="A5" s="10" t="s">
         <v>154</v>
       </c>
@@ -6947,7 +6942,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="127.5">
+    <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
         <v>288</v>
       </c>
@@ -6964,7 +6959,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="127.5">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="26" t="s">
         <v>156</v>
       </c>
@@ -6982,7 +6977,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="140.25">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="26" t="s">
         <v>157</v>
       </c>
@@ -7000,7 +6995,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="127.5">
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>158</v>
       </c>
@@ -7017,7 +7012,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="140.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="10" t="s">
         <v>160</v>
       </c>
@@ -7034,7 +7029,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="127.5">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="26" t="s">
         <v>162</v>
       </c>
@@ -7052,7 +7047,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="127.5">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="26" t="s">
         <v>255</v>
       </c>
@@ -7070,7 +7065,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="127.5">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="26" t="s">
         <v>257</v>
       </c>
@@ -7086,7 +7081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="127.5">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="28" t="s">
         <v>289</v>
       </c>
@@ -7102,7 +7097,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="140.25">
+    <row r="15" spans="1:15" ht="15">
       <c r="A15" s="28" t="s">
         <v>260</v>
       </c>
@@ -7118,7 +7113,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="140.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>163</v>
       </c>
@@ -7135,7 +7130,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="140.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
         <v>165</v>
       </c>
@@ -7152,7 +7147,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="140.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
         <v>166</v>
       </c>
@@ -7169,7 +7164,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="153">
+    <row r="19" spans="1:10" ht="13.5">
       <c r="A19" s="10" t="s">
         <v>563</v>
       </c>
@@ -7198,7 +7193,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="153">
+    <row r="20" spans="1:10" ht="13.5">
       <c r="A20" s="10" t="s">
         <v>564</v>
       </c>
@@ -7224,7 +7219,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="153">
+    <row r="21" spans="1:10" ht="13.5">
       <c r="A21" s="10" t="s">
         <v>565</v>
       </c>
@@ -7250,7 +7245,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="153">
+    <row r="22" spans="1:10" ht="13.5">
       <c r="A22" s="10" t="s">
         <v>566</v>
       </c>
@@ -7279,7 +7274,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="153">
+    <row r="23" spans="1:10" ht="13.5">
       <c r="A23" s="10" t="s">
         <v>567</v>
       </c>
@@ -7308,7 +7303,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="153">
+    <row r="24" spans="1:10" ht="13.5">
       <c r="A24" s="10" t="s">
         <v>568</v>
       </c>
@@ -7337,7 +7332,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="153">
+    <row r="25" spans="1:10" ht="13.5">
       <c r="A25" s="10" t="s">
         <v>680</v>
       </c>
@@ -7366,7 +7361,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="153">
+    <row r="26" spans="1:10" ht="13.5">
       <c r="A26" s="10" t="s">
         <v>684</v>
       </c>
@@ -7395,7 +7390,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="153">
+    <row r="27" spans="1:10" ht="13.5">
       <c r="A27" s="10" t="s">
         <v>688</v>
       </c>
@@ -7421,7 +7416,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="153">
+    <row r="28" spans="1:10" ht="13.5">
       <c r="A28" s="10" t="s">
         <v>693</v>
       </c>
@@ -7447,7 +7442,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="153">
+    <row r="29" spans="1:10" ht="13.5">
       <c r="A29" s="10" t="s">
         <v>695</v>
       </c>
@@ -7476,7 +7471,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="153">
+    <row r="30" spans="1:10" ht="13.5">
       <c r="A30" s="10" t="s">
         <v>703</v>
       </c>
@@ -7499,7 +7494,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="153">
+    <row r="31" spans="1:10" ht="13.5">
       <c r="A31" s="10" t="s">
         <v>712</v>
       </c>
@@ -7522,7 +7517,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="153">
+    <row r="32" spans="1:10" ht="13.5">
       <c r="A32" s="10" t="s">
         <v>708</v>
       </c>
@@ -7545,7 +7540,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="153">
+    <row r="33" spans="1:9" ht="13.5">
       <c r="A33" s="10" t="s">
         <v>711</v>
       </c>
@@ -7565,7 +7560,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="153">
+    <row r="34" spans="1:9" ht="13.5">
       <c r="A34" s="10" t="s">
         <v>716</v>
       </c>
@@ -7596,7 +7591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8204,16 +8199,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9334,10 +9331,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -11600,7 +11597,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="93" spans="1:16" s="12" customFormat="1" ht="195">
       <c r="A93" s="22" t="s">
         <v>138</v>
       </c>
@@ -11638,7 +11635,7 @@
       <c r="O93" s="35"/>
       <c r="P93" s="35"/>
     </row>
-    <row r="94" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="94" spans="1:16" s="12" customFormat="1">
       <c r="A94" s="10" t="s">
         <v>143</v>
       </c>
@@ -11666,7 +11663,7 @@
       <c r="O94" s="35"/>
       <c r="P94" s="35"/>
     </row>
-    <row r="95" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="95" spans="1:16" s="12" customFormat="1">
       <c r="A95" s="10" t="s">
         <v>281</v>
       </c>
@@ -11694,7 +11691,7 @@
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
     </row>
-    <row r="96" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="96" spans="1:16" s="12" customFormat="1">
       <c r="A96" s="10" t="s">
         <v>283</v>
       </c>
@@ -11728,7 +11725,7 @@
       <c r="O96" s="35"/>
       <c r="P96" s="35"/>
     </row>
-    <row r="97" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="97" spans="1:16" s="12" customFormat="1">
       <c r="A97" s="10" t="s">
         <v>285</v>
       </c>
@@ -11756,7 +11753,7 @@
       <c r="O97" s="35"/>
       <c r="P97" s="35"/>
     </row>
-    <row r="98" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="98" spans="1:16" s="12" customFormat="1">
       <c r="A98" s="10" t="s">
         <v>140</v>
       </c>
@@ -11784,7 +11781,7 @@
       <c r="O98" s="35"/>
       <c r="P98" s="35"/>
     </row>
-    <row r="99" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="99" spans="1:16" s="12" customFormat="1">
       <c r="A99" s="10" t="s">
         <v>141</v>
       </c>
@@ -11826,7 +11823,7 @@
       <c r="O99" s="35"/>
       <c r="P99" s="35"/>
     </row>
-    <row r="100" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="100" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A100" s="10" t="s">
         <v>144</v>
       </c>
@@ -11868,7 +11865,7 @@
       <c r="O100" s="35"/>
       <c r="P100" s="35"/>
     </row>
-    <row r="101" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="101" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A101" s="10" t="s">
         <v>146</v>
       </c>
@@ -11910,7 +11907,7 @@
       <c r="O101" s="35"/>
       <c r="P101" s="35"/>
     </row>
-    <row r="102" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="102" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A102" s="10" t="s">
         <v>149</v>
       </c>
@@ -11942,7 +11939,7 @@
       <c r="O102" s="35"/>
       <c r="P102" s="35"/>
     </row>
-    <row r="103" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="103" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A103" s="10" t="s">
         <v>265</v>
       </c>
@@ -11972,7 +11969,7 @@
       <c r="O103" s="35"/>
       <c r="P103" s="35"/>
     </row>
-    <row r="104" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="104" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A104" s="10" t="s">
         <v>267</v>
       </c>
@@ -12070,7 +12067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Automation/Transaction_request/XLS/card_data_sanity.xlsx
+++ b/Automation/Transaction_request/XLS/card_data_sanity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="292" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="292" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="749">
   <si>
     <t>#</t>
   </si>
@@ -2270,6 +2270,12 @@
   </si>
   <si>
     <t>MC LIVE APPROVED</t>
+  </si>
+  <si>
+    <t>374245001751006D301220115021234500000F</t>
+  </si>
+  <si>
+    <t>4F%7EA000000025010402%1E50%7E414D45524943414E2045585052455353%1E5F20%7E554154205553412F546573742043617264203132202020202020%1E5F24%7E301231%1E5F25%7E250201%1E5F28%7E0840%1E5F2A%7E0840%1E5F2D%7E656e%1E5F30%7E0201%1E5F34%7E00%1E5F56%7E%1E82%7E1C00%1E84%7EA000000025010402%1E8E%7E0000000000000000420142035E035F03000000000000000000000000%1E8F%7EB9%1E95%7E8000088000%1E9A%7E250801%1E9B%7E6800%1E9C%7E00%1E9F02%7E000000000100%1E9F03%7E000000000000%1E9F06%7EA00000002501%1E9F07%7EFF00%1E9F08%7E0001%1E9F09%7E0001%1E9F0D%7EB050FC9800%1E9F0E%7E0000000000%1E9F0F%7EB078FC9800%1E9F10%7E06020103A0B000%1E9F11%7E01%1E9F12%7E416D65726963616E2045787072657373%1E9F15%7E0000%1E9F1A%7E0840%1E9F1C%7E3130373837323635%1E9F1E%7E323735323234373635%1E9F21%7E081313%1E9F26%7ECD3E4CCD2446935A%1E9F27%7E80%1E9F33%7EE0F8C8%1E9F34%7E5E0300%1E9F35%7E22%1E9F36%7E02E2%1E9F37%7E230C0C9A%1E9F39%7E05%1E9F40%7E6000F0A001%1E9F41%7E00000003%1E9F42%7E840%1E9F4C%7E%1E9F53%7E52%1E9F6E%7E%1E9F7C%7E%1EDF79%7E342e302e30%1E</t>
   </si>
 </sst>
 </file>
@@ -3262,7 +3268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3273,7 +3279,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5048,7 +5054,7 @@
   <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -6785,10 +6791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -6855,82 +6861,88 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:15" s="10" customFormat="1">
+      <c r="A2" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
+      <c r="A3" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="D2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="21"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="10" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="13.5">
-      <c r="A4" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="13.5">
       <c r="A5" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>40</v>
@@ -6938,16 +6950,16 @@
       <c r="E5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="F5" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13.5">
       <c r="A6" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>40</v>
@@ -6956,16 +6968,15 @@
         <v>41</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="26"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="C7" s="23" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>40</v>
@@ -6974,33 +6985,34 @@
         <v>41</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="23" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="10" t="s">
-        <v>158</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15">
+      <c r="A9" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>40</v>
@@ -7009,15 +7021,15 @@
         <v>51</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>40</v>
@@ -7026,14 +7038,13 @@
         <v>51</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15">
-      <c r="A11" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="27"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="C11" s="23" t="s">
         <v>161</v>
       </c>
@@ -7044,16 +7055,16 @@
         <v>51</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" s="26"/>
+        <v>162</v>
+      </c>
+      <c r="B12" s="27"/>
       <c r="C12" s="23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>40</v>
@@ -7062,15 +7073,17 @@
         <v>51</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="D13" s="21" t="s">
         <v>40</v>
       </c>
@@ -7078,14 +7091,14 @@
         <v>51</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15">
-      <c r="A14" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="28"/>
+      <c r="A14" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="23"/>
       <c r="D14" s="21" t="s">
         <v>40</v>
@@ -7094,12 +7107,12 @@
         <v>51</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="28" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="23"/>
@@ -7110,29 +7123,28 @@
         <v>51</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>164</v>
-      </c>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15">
+      <c r="A16" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>164</v>
@@ -7144,12 +7156,12 @@
         <v>121</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>164</v>
@@ -7161,41 +7173,29 @@
         <v>121</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="13.5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>139</v>
+        <v>166</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>678</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>679</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>724</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>674</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>677</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5">
       <c r="A20" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>139</v>
@@ -7207,21 +7207,24 @@
         <v>56</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>569</v>
+        <v>678</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>571</v>
+        <v>679</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>676</v>
+        <v>674</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.5">
       <c r="A21" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>139</v>
@@ -7233,13 +7236,13 @@
         <v>56</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>676</v>
@@ -7247,7 +7250,7 @@
     </row>
     <row r="22" spans="1:10" ht="13.5">
       <c r="A22" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>139</v>
@@ -7259,24 +7262,21 @@
         <v>56</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>673</v>
+        <v>570</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>671</v>
+        <v>572</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>668</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.5">
       <c r="A23" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>139</v>
@@ -7288,24 +7288,24 @@
         <v>56</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>668</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.5">
       <c r="A24" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>139</v>
@@ -7317,24 +7317,24 @@
         <v>56</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.5">
       <c r="A25" s="10" t="s">
-        <v>680</v>
+        <v>568</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>139</v>
@@ -7346,24 +7346,24 @@
         <v>56</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>682</v>
+        <v>574</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.5">
       <c r="A26" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>139</v>
@@ -7375,24 +7375,24 @@
         <v>56</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>668</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.5">
       <c r="A27" s="10" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>139</v>
@@ -7404,21 +7404,24 @@
         <v>56</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>676</v>
+        <v>668</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5">
       <c r="A28" s="10" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>139</v>
@@ -7430,13 +7433,13 @@
         <v>56</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>676</v>
@@ -7444,7 +7447,7 @@
     </row>
     <row r="29" spans="1:10" ht="13.5">
       <c r="A29" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>139</v>
@@ -7456,27 +7459,24 @@
         <v>56</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>674</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5">
       <c r="A30" s="10" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>705</v>
+        <v>139</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>40</v>
@@ -7485,18 +7485,24 @@
         <v>56</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>704</v>
+        <v>694</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>734</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.5">
       <c r="A31" s="10" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>705</v>
@@ -7508,18 +7514,18 @@
         <v>56</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>668</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5">
       <c r="A32" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>705</v>
@@ -7531,18 +7537,18 @@
         <v>56</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.5">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="13.5">
       <c r="A33" s="10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>705</v>
@@ -7554,15 +7560,18 @@
         <v>56</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.5">
+        <v>674</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.5">
       <c r="A34" s="10" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>705</v>
@@ -7574,9 +7583,29 @@
         <v>56</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="13.5">
+      <c r="A35" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>676</v>
       </c>
     </row>
@@ -8202,7 +8231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
